--- a/CaVaTeCo/form_w_relatos.xlsx
+++ b/CaVaTeCo/form_w_relatos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6AE52-31DF-44F9-B994-24193AF4CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464D1F1-E178-47E8-BFE0-97C0EEE44DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,9 +366,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>Selecionar o seu nome:</t>
   </si>
   <si>
@@ -382,6 +379,30 @@
   </si>
   <si>
     <t>relatos</t>
+  </si>
+  <si>
+    <t>Nome da pessoa (não é obrigatório, ou pode usar pseudônimo)</t>
+  </si>
+  <si>
+    <t>select_one_from_file enum_names.csv</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext})</t>
+  </si>
+  <si>
+    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
+  </si>
+  <si>
+    <t>tf_logo.jpg</t>
+  </si>
+  <si>
+    <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
+    <t>"Formulário W - Submissão de Relatos do Campo"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
   <si>
     <t>&lt;span style="color:#FF0000"&gt;${project}&lt;/span&gt;&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;
@@ -389,28 +410,7 @@
 O consentimento livre, prévio e informado deve ser obtido de todas as pessoas representadas no conteúdo visual e escrito. O enumerador precisará explicar que gostaríamos de compartilhar a história ou as fotos e que essas podem ser vistas ou ouvidas por qualquer pessoa no mundo. Deve explicar que a história pode aparecer nos jornais, ou em mensagens partilhadas nos telemoveis. Também, as pessoas devem ser informadas que têm o “direito de ser esquecidas” e que podem pedir que as suas imagens ou palavras deixem de ser usadas.  Dê-lhes a oportunidade de fazer perguntas e levantar quaisquer preocupações. Certifique-se de que eles entendam e não apresse o processo.
 &lt;span style="color:#FF0000"&gt;Nunca usaremos fotos ou histórias de crianças (menores de 18 anos).&lt;/span&gt;
 A história deve contar os nomes das pessoas envolvidas, o contexto e histórico das questões e assuntos, e descrever como o apoio dos parceiros resolveu ou não o problema. Alguém que concorda com o compartilhamento de sua história também pode optar por ocultar seu nome ou usar um pseudônimo.
-Observe que a equipa de comunicação da Terra Firma ou USAID pode entrar em contacto com os autores para discutir a história e aprofundá-la.</t>
-  </si>
-  <si>
-    <t>Nome da pessoa (não é obrigatório, ou pode usar pseudônimo)</t>
-  </si>
-  <si>
-    <t>select_one_from_file enum_names.csv</t>
-  </si>
-  <si>
-    <t>starts-with(label,${searchtext})</t>
-  </si>
-  <si>
-    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
-  </si>
-  <si>
-    <t>tf_logo.jpg</t>
-  </si>
-  <si>
-    <t>"CLCR Lot 1 Avante"</t>
-  </si>
-  <si>
-    <t>"Formulário W - Submissão de Relatos do Campo"</t>
+Observe que a equipa de comunicação da Terra Firma ou os seus clientes pode entrar em contacto com os autores para discutir a história e aprofundá-la.</t>
   </si>
 </sst>
 </file>
@@ -1000,9 +1000,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="241" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1018,6 +1015,9 @@
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1601,11 +1601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1716,7 @@
         <v>94</v>
       </c>
       <c r="N6" s="48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1726,8 +1726,8 @@
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="56" t="s">
-        <v>124</v>
+      <c r="N7" s="55" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1749,8 +1749,8 @@
       <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="52" t="s">
-        <v>122</v>
+      <c r="O9" s="51" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
@@ -1776,8 +1776,8 @@
       <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>117</v>
+      <c r="C12" s="56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
@@ -1798,31 +1798,31 @@
       <c r="A14" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="40" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>112</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>113</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>20</v>
@@ -1832,11 +1832,11 @@
       <c r="A16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>114</v>
+      <c r="B16" s="52" t="s">
+        <v>113</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>20</v>
@@ -1941,8 +1941,8 @@
       <c r="B24" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>118</v>
+      <c r="C24" s="49" t="s">
+        <v>116</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>47</v>
@@ -6881,7 +6881,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6916,12 +6916,12 @@
         <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="45">
-        <v>202401</v>
-      </c>
-      <c r="D2" s="51"/>
+        <v>202402</v>
+      </c>
+      <c r="D2" s="50"/>
       <c r="E2" s="42" t="s">
         <v>104</v>
       </c>
